--- a/DOWNLOADS/EDITAIS/U_986563_E_900672025_08-10-2025_09h00m/U_986563_E_900672025_08-10-2025_09h00m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_986563_E_900672025_08-10-2025_09h00m/U_986563_E_900672025_08-10-2025_09h00m_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="116">
   <si>
     <t>Nº</t>
   </si>
@@ -253,45 +253,57 @@
     <t>PLACA MÃE PARA DESKTOP.SUPORTE AO PROCESSADOR (SOCKET E COMPATIBILIDADE) DO ITEM 1.8/1.9/1.10. 02 SLOTS PARA MEMÓRIA DO TIPO DDR4 COM FREQUÊNCIA DE 2133/2400/2666 MHZ. PLACA DE VÍDEO ON-BOARD CONEXÃO VGA/DVI. ÁUDIO ON-BOARD, 04 ENTRADAS USB 3.0 E 02 ENTRADAS USB 2.0. ENTRADA CONECTORA PS2(TECLADO E MOUSE). INTERFACE DE REDE RJ-45 - 10/100/1000 MBPS. 04 PORTAS SATA 6GB/S (MÍNIMO). SLOTS DE EXPANSÃO 01 PCI- EXPRESS 3.0/2.0 16X, 2PCI-EXPRESS 2.0 1X.</t>
   </si>
   <si>
+    <t>HDS EXTERNO TIPO DISCO RÍGIDO EXTERNO, MODELO DE 3,5 POLEGADAS, 4TB 4.000GB) DE CAPACIDADE, INTERFACE USB V3.0. GARANTIA: 12 (DOZE) MESES</t>
+  </si>
+  <si>
     <t>- DISCO RÍGIDO SSD COM FATOR DE FORMA: SSD INTERNO DE 2,5 POLEGADAS, CAPACIDADE: 480GB, INTERFACE: SATA 6.0GB / S, TIPO DE DISPOSITIVO: DRIVE DE ESTADO SÓLIDO INTERNO, ALTURA DA UNIDADE: 7,0 MM, FATOR DE FORMA: 2,5 "(7MM)</t>
   </si>
   <si>
-    <t>HDS EXTERNO TIPO DISCO RÍGIDO EXTERNO, MODELO DE 3,5 POLEGADAS, 4TB 4.000GB) DE CAPACIDADE, INTERFACE USB V3.0. GARANTIA: 12 (DOZE) MESES</t>
-  </si>
-  <si>
-    <t>- MEMÓRIA RAM TECNologia DDR4, VELOCIDADE DDR4 – MÍNIMO DE 2666MHz, CAPACIDADE 8GB, TIPO DE MÓDULO DIMM, TEMPO ESTENDIDO: 15-15-15-36,</t>
-  </si>
-  <si>
-    <t>- MEMÓRIA RAM TECNologia DDR4, VELOCIDADE DDR4 - MÍNIMO DE 2666MHz, CAPACIDADE 16GB, TIPO DE MÓDULO DIMM, TEMPO ESTENDIDO: 15-15-15-36,</t>
+    <t>- DISCO RÍGIDO SSD COM FATOR DE FORMA: SSD INTERNO DE 2,5 POLEGADAS, CAPACIDADE: 240GB, INTERFACE: SATA 6.0GB / S, TIPO DE DISPOSITIVO: DRIVE DE ESTADO SÓLIDO INTERNO, ALTURA DA UNIDADE: 7,0 MM, FATOR DE FORMA: 2,5 "(7MM)</t>
+  </si>
+  <si>
+    <t>- MEMÓRIA RAM TECNOLOGIA DDR4, VELOCIDADE DDR4 – MÍNIMO DE 2666MHz, CAPACIDADE 8GB, TIPO DE MÓDULO DIMM, TEMPO ESTENDIDO: 15-15-15-36,</t>
+  </si>
+  <si>
+    <t>- MEMÓRIA RAM TECNOLOGIA DDR4, VELOCIDADE DDR4 - MÍNIMO DE 2666MHz, CAPACIDADE 16GB, TIPO DE MÓDULO DIMM, TEMPO ESTENDIDO: 15-15-15-36,</t>
   </si>
   <si>
     <t>- FONTE DE ALIMENTAÇÃO PARA COMPUTADORES: FONTE DE ALIMENTAÇÃO ATX COM POTÊNCIA DE 550 W, COMPATÍVEL COM PADRÃO INTEL ATX/BTX, 02 CONECTORES DE ATX 12 V, EXPRESS (DUAL SLI PCI-E COM UM CONECTOR DE 6+2 PINOS), UM VENTILADOR DE 12 CM DE DIÂMETRO, EFICIÊNCIA &gt; 73%, FONTE COM CHAVEAMENTO BIVOLT 110/220V, CONECTOR DE PLACA MÃE DE 24 PINOS, 80 PLUS MODULAR. 03 CONECTORES SATA, 06 CONECTORES MOLEX DE 04 PINOS, 01 CONECTOR DE 04 PINOS PARA FLOPPY, 02 CONECTORES PCI.</t>
   </si>
   <si>
+    <t>DESCRIÇÃO: PROCESSADOR PARA DESKTOP. ESPECIFICAÇÕES DO PROCESSADOR: NÚCLEOS: 04, NÚMERO DE THREADS: 08. 3.3 GHZ DE PROCESSAMENTO MÍNIMO. CACHE, 5 MB INTEL SMART CACHE, VELOCIDADE DO BARRAMENTO 8 GT/S, TDP 60 W, FREQUÊNCIA DA BASE GRÁFICA 300 MHZ, SAÍDA GRÁFICA EDP 1.4B, DP 1.4A, HDMI 2.1</t>
+  </si>
+  <si>
+    <t>DESCRIÇÃO: PROCESSADOR PARA DESKTOP. ESPECIFICAÇÕES DO PROCESSADOR: NÚCLEOS: 06, NÚMERO DE THREADS: 12. 4.4 GHZ DE PROCESSAMENTO MÍNIMO. CACHE 7,5 MB INTEL SMART CACHE, TDP 65 W, FREQUÊNCIA DA BASE GRÁFICA 300 MHZ, SAÍDA GRÁFICA EDP 1.4B, DP 1.4A, HDMI 2.1</t>
+  </si>
+  <si>
     <t>DESCRIÇÃO: PROCESSADOR PARA DESKTOP. ESPECIFICAÇÕES DO PROCESSADOR: NÚCLEOS: 08, NÚMERO DE THREADS: 20. 5 GHZ DE PROCESSAMENTO MÍNIMO. CACHE 12 MB INTEL SMART CACHE, TDP 125 W, FREQUÊNCIA DA BASE GRÁFICA 300 MHZ, SAÍDA GRÁFICA EDP 1.4B, DP 1.4A, HDMI 2.1</t>
   </si>
   <si>
-    <t>DESCRIÇÃO: PROCESSADOR PARA DESKTOP. ESPECIFICAÇÕES DO PROCESSADOR: NÚCLEOS: 04, NÚMERO DE THREADS: 08. 3.3 GHZ DE PROCESSAMENTO MÍNIMO. CACHE, 5 MB INTEL SMART CACHE, VELOCIDADE DO BARRAMENTO 8 GT/S, TDP 60 W, FREQUÊNCIA DA BASE GRÁFICA 300 MHZ, SAÍDA GRÁFICA EDP 1.4B, DP 1.4A, HDMI 2.1</t>
-  </si>
-  <si>
-    <t>DESCRIÇÃO: PROCESSADOR PARA DESKTOP. ESPECIFICAÇÕES DO PROCESSADOR: NÚCLEOS: 06, NÚMERO DE THREADS: 12. 4.4 GHZ DE PROCESSAMENTO MÍNIMO. CACHE 7,5 MB INTEL SMART CACHE, TDP 65 W, FREQUÊNCIA DA BASE GRÁFICA 300 MHZ, SAÍDA GRÁFICA EDP 1.4B, DP 1.4A, HDMI 2.1</t>
-  </si>
-  <si>
     <t>- TECLADO, PARA MICROCOMPUTADOR PC, NA COR PRETA, LAYOUT PADRÃO ABNT-2 (PORTUGUÊS DO BRASIL, COM 'Ç'); ESTENDIDO, CONECTOR USB. - LAYOUT ABNT-2 ESTENDIDO COM TECLAS PARA WINDOWS, DEVE POSSUIR TECLADO NUMÉRICO; - CONECTOR USB; PLUG AND PLAY; - CONSTRUÍDO EM TERMOPLÁSTICO DE COR ÚNICA - MÍNIMO DE 107 TECLAS EM ÂNGULO RETO, COM GRAVAÇÃO PERMANENTE (A LASER OU TRANSFERÊNCIA A QUENTE) DAS LETRAS E SÍMBOLOS.; - TECLAS BACKSPACE E ENTER DE TAMANHO DUPLO; - BLOCO NUMÉRICO SEPARADO DAS DEMAIS; - TECLAS ALTGR, POWER OFF, SLEEP, INSERT E DELETE. - REGULAGEM DE INCLINAÇÃO.; - INDICATIVO LUMINOSO NO TECLADO O STATUS DAS FUNCIONALIDADES NUM LOCK E CAPS LOCK - GARANTIA DE 1 ANO. ATENDER A (S) NORMA (S) ABNT VIGENTE (S).</t>
   </si>
   <si>
     <t>- MOUSE, OPTICO, MÍNIMO 800 DPI, PADRAO USB, 3 BOTOES INCLUINDO BOTAO SCROLL, ERGONOMICO, TAMANHO NORMAL, COMPATIVEL COM WINDOWS E LINUX; - RESOLUCAO MINIMA 800 DPI. - TECNOLOGIA DE SENSOR OPTICO SEM ESFERA - CONECTOR USB. - 2 (DOIS) BOTOES. - RODA DE ROLAGEM (SCROLL) PARA ROLAGEM DA TELA MANUAL OU AUTOMATICA, SELECIONAVEL POR CLICK NA RODA DE ROLAGEM. (NAO SERA ACEITO MINI MOUSE), DESENHO SIMETRICO PARA USO POR DESTROS E CANHOTOS. - COMPATIBILIDADE COM WINDOWS PARA TODAS AS VERSOES A PARTIR DO WINDOWS 98 E LINUX. - INSTRUCOES DE OPERACAO E INSTALACAO EM PORTUGUES. - GARANTIA MÍNIMA DE 6 MESES. ATENDER A (S) NORMA (S) ABNT VIGENTE (S).</t>
   </si>
   <si>
+    <t>PLACA DE VÍDEO OFFBOARD DE 12GB GDDR5 OU SUPERIOR, INTERFACE: PCI EXPRESS 3.0 16X, CORE CLOCK: 1650 MHZ, MEMÓRIA: 12GB GDDR5 OU SUPERIOR, FREQÜÊNCIA DA MEMÓRIA: 14000MHZ, INTERFACE DA MEMÓRIA: 192BIT, LARGURA DE BANDA DE MEMÓRIA: ATÉ 336 GB/S, CUDA CORES/STREAM PROCESSORS: 2176, MONITORES SUPORTADOS: 4 CONECTORES: 3X DISPLAYPORT 1.4 1X HDMI 2.0B, CONECTOR DE ENERGIA: 8 PIN*1</t>
+  </si>
+  <si>
+    <t>- ADAPTADOR WIFI DUAL BAND 2.4 / 5GHZ MINIMO DE 600MBPS COM SUPORTE A WIRELESS 5G AC OU SUPERIOR.</t>
+  </si>
+  <si>
+    <t>PLACA DE REDE RJ45 GIGABIT ETHERNET 10/100/1000</t>
+  </si>
+  <si>
     <t>PLACA OFFBOARD DE VÍDEO COM NO MINIMO 2GB DDR3. CARACTERISTICAS IGUAL O SUPERIOR MEMÓRIA DE VÍDEO: GDDR3 2GB, CLOCK DO PROCESSADOR: 1620 MHZ, CUDA CORE: 2.1, CLOCK DE MEMÓRIA: 898 MHZ / 1796 MHZ EFICAZ, INTERFACE DE MEMÓRIA: 64 BITS, RESOLUÇÃO: MÁXIMA D-SUB: 2048 X 1536 - MÁXIMA DVI: 2560 X 1600</t>
   </si>
   <si>
-    <t>PLACA DE REDE RJ45 GIGABIT ETHERNET 10/100/1000</t>
-  </si>
-  <si>
     <t>- WEBCAM FULL HD RESOLUÇÃO FULL HD 1080P/30QPS; FOCO AUTOMÁTICO; MICROFONE ESTÉREO EMBUTIDO; FAZ FILMAGENS EM ATÉ 30 FPS COM AJUSTE PARA MONITORES LCD OU LAPTOPS, INTERFACE USB, CAMPO DE VISÃO CDV DIAGONAL DE 78°, ZOOM DIGITAL DE ATÉ 1.2X, PROTEÇÃO DE PRIVACIDADE REMOVÍVEL (TAMPA), ALCANCE DE CAPTAÇÃO DO SOM DE, NO MÍNIMO 1M, COM CABO DE NO MÍNIMO 1,5M, 01 ANO DE GARANTIA.</t>
   </si>
   <si>
+    <t>TAMANHO DO DISCO RÍGIDO 1.8". CAPACIDADE DO HD 160 GB. VELOCIDADE DO HDD 5400 RPM. TAMANHO DO BUFFER DO DRIVE DE ARMAZENAMENTO 16 MB. NÚMERO DE CABEÇAS DO HDD 2. TEMPO DE BUSCA FAIXA A FAIXA 3 MS. MÉDIA DE TEMPO DE BUSCA 15 MS. LATÊNCIA MÉDIA 5,6 MS. ENERGIA: CONSUMO DE ENERGIA (STANDBY) 0,18 W. CONSUMO DE ENERGIA (LEITURA) 1,3 W. CONSUMO DE ENERGIA (GRAVAÇÃO) 1,3 W. CONSUMO DE ENERGIA (OCIOSO) 0,4 W. VOLTAGEM 3,3 V. CONDIÇÕES DE OPERAÇÃO. TEMPERATURA OPERAÇÃO (T-T) 5 - 65 °C. VIBRAÇÃO EM OPERAÇÃO 2 G. VIBRAÇÃO SEM OPERAÇÃO 5 G. CHOQUE EM OPERAÇÃO 500 G. CHOQUE SEM OPERAÇÃO 1500 G</t>
+  </si>
+  <si>
     <t>MONITOR 21 POLEGADAS - TIPO LCD COM TECNOLOGIA LED DE NO MINIMO 21 POLEGADAS; RESOLUÇÃO 1920 X 1080 A 60 HZ; CONTRASTE 1.000:00; BASE COM GIRO ATE 90 GRAUS; REGULAGEM DE ALTURA DE 10 CM; CONEXÃO DE ENTRADA VGA, HDMI OU DISPLAY PORT; TENSÃO 110/220V AUTOMÁTICO.</t>
   </si>
   <si>
@@ -313,7 +325,7 @@
     <t>- CONECTOR TIPO RJ45 FÊMEA (KEYSTONE T568A/B) CAT 6. COR BRANCA, APLICAÇÃO: REDE DE COMPUTADORES, AMBIENTE DE INSTALAÇÃO: INTERNO. NÃO BLINDADO, C E R T I F I C A Ç Ã O ROHS, CONFORMIDADE COM AS N O R M A S NBR 14565 E ANSI/TIA-568-C.2. PACOTE COM 100 UNIDADES</t>
   </si>
   <si>
-    <t>SWITCH DE ACESSO 24 PORTAS GIGABIT GERENCIÁVEL ESPECIFICAÇÕES: EQUIPAMENTO TIPO COMUTADOR ETHERNET COM CAPACIDADE DE OPERAÇÃO EM CAMADA 2 DO MODELO OSI; DEVE POSSUIR, NO MÍNIMO, A SEGUINTE CONFIGURAÇÃO DE PORTAS: 24 (VINTE E QUATRO) PORTAS 10/100/1000 RJ45 02 SLOTS SFP OU SFP+ O TOTAL DE PORTAS ATIVAS SIMULTANEAMENTE NÃO DEVERÁ SER INFERIOR A 26 O GABINETE DEVE TER, NO MÁXIMO, UM (01) U (RACK UNIT) E PERMITIR A INSTALAÇÃO EM RACK PADRÃO DE 19´ (DEZENOVE POLEGADAS), INCLUINDO TODOS OS ACESSÓRIOS NECESSÁRIOS; DEVE POSSUIR PORTA DE CONSOLE PARA LIGAÇÃO DIRETA DE TERMINAL RS-232 OU RJ45 OU USB PARA ACESSO À INTERFACE DE LINHA DE COMANDO; DEVE POSSUIR CONFIGURAÇÃO DE CPU E MEMÓRIA (RAM E FLASH) SUFICIENTES PARA IMPLANTAÇÃO DE TODAS AS FUNCIONALIDADES DISPONÍVEIS; DEVE PERMITIR O ENCAMINHAMENTO DE JUMBO FRAMES (PACOTES DE 9000 BYTES); DEVE POSSUIR FONTE DE ALIMENTAÇÃO INTERNA BI- VOLT COM COMUTAÇÃO AUTOMÁTICA E SER FORNECIDO CABOS NECESSÁRIOS PARA SUA LIGAÇÃO; DEVE POSSUIR LEDS PARA INDICAÇÃO DO STATUS DAS PORTAS E ATIVIDADE; DEVE TER CAPACIDADE PARA PELO MENOS 8.000 (OITO MIL) ENDEREÇOS MAC NA TABELA DE COMUTAÇÃO</t>
+    <t>SWITCH DE ACESSO 24 PORTAS GIGABIT GERENCIÁVEL ESPECIFICAÇÕES: EQUIPAMENTO TIPO COMUTADOR ETHERNET COM CAPACIDADE DE OPERAÇÃO EM CAMADA 2 DO MODELO OSI; DEVE POSSUIR, NO MÍNIMO, A SEGUINTE CONFIGURAÇÃO DE PORTAS: 24 (VINTE E QUATRO) PORTAS 10/100/1000 RJ45 02 SLOTS SFP OU SFP+ O TOTAL DE PORTAS ATIVAS SIMULTANEAMENTE NÃO DEVERÁ SER INFERIOR A 26 O GABINETE DEVE TER, NO MÁXIMO, UM (01) U (RACK UNIT) E PERMITIR A INSTALAÇÃO EM RACK PADRÃO DE 19´ (DEZENOVE POLEGADAS), INCLUINDO TODOS OS ACESSÓRIOS NECESSÁRIOS; DEVE POSSUIR PORTA DE CONSOLE PARA LIGAÇÃO DIRETA DE TERMINAL RS-232 OU RJ45 OU USB PARA ACESSO À INTERFACE DE LINHA DE COMANDO; DEVE POSSUIR CONFIGURAÇÃO DE CPU E MEMÓRIA (RAM E FLASH) SUFICIENTES PARA IMPLANTAÇÃO DE TODAS AS FUNCIONALIDADES DISPONÍVEIS; DEVE PERMITIR O ENCAMINHAMENTO DE JUMBO FRAMES (PACOTES DE 9000 BYTES); DEVE POSSUIR FONTE DE ALIMENTAÇÃO INTERNA BI-VOLT COM COMUTAÇÃO AUTOMÁTICA E SER FORNECIDO CABOS NECESSÁRIOS PARA SUA LIGAÇÃO; DEVE POSSUIR LEDS PARA INDICAÇÃO DO STATUS DAS PORTAS E ATIVIDADE; DEVE TER CAPACIDADE PARA PELO MENOS 8.000 (OITO MIL) ENDEREÇOS MAC NA TABELA DE COMUTAÇÃO</t>
   </si>
   <si>
     <t>ACCESS POINT DE ALTO DESEMPENHO PARA MONTAGEM EM PAREDE/TETO. SUPORTE A WIFI 6 DUAL-BAND (2.4/5 GHZ) SIMULTANEAMENTE. INTERFACE DE REDE 1× 10/100/1000 BASE- TX, RJ45. SUPORTE PARA 350 CLIENTES SIMULTÂNEOS OU MAIS. COM SISTEMA DE ADOÇÃO VIA WEB, ANDROID E IOS E APP DE MONITORAMENTO + DISPOSITIVO MULTI PORTAS PROCESSADOR ARM V8-A CORTEX A53 DE 64 BITS 1.2GHZ COM NEON SIMD E FPU NUCLEO DUPLO, UMA PORTA WAN DE 1 GIGABIT ETHERNET (RJ45/SFPCOMBO) QUATRO PORTAS LAN DE 1 GIGABIT ETHERNET (SWITCH MARVEL 88E6141) AS PORTAS LAN PODEM SER REAPROVEITADAS PARA PORTAS WAN ADICIONAIS. SSD M.2 SATA 2242 M.2 M.2 (NÃO COMPATIVEL COM NVME). PORTA 1X 2.0. ARREFECIMENTO: PASSIVO, CERTIFICAÇÕES: CE, FCC (CLASSE B), ROHS, UL, RCM, VCCI.</t>
@@ -762,13 +774,13 @@
         <v>704.74</v>
       </c>
       <c r="G2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -791,13 +803,13 @@
         <v>919.5700000000001</v>
       </c>
       <c r="G3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -820,13 +832,13 @@
         <v>435.86</v>
       </c>
       <c r="G4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -837,7 +849,7 @@
         <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -849,13 +861,13 @@
         <v>280.68</v>
       </c>
       <c r="G5" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I5" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -866,7 +878,7 @@
         <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -878,13 +890,13 @@
         <v>306.51</v>
       </c>
       <c r="G6" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H6" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I6" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -895,7 +907,7 @@
         <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -907,13 +919,13 @@
         <v>490.76</v>
       </c>
       <c r="G7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -924,7 +936,7 @@
         <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -936,13 +948,13 @@
         <v>493.62</v>
       </c>
       <c r="G8" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I8" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -953,7 +965,7 @@
         <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -965,13 +977,13 @@
         <v>1038.11</v>
       </c>
       <c r="G9" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -982,7 +994,7 @@
         <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -994,13 +1006,13 @@
         <v>1854.15</v>
       </c>
       <c r="G10" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H10" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I10" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1011,7 +1023,7 @@
         <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1023,13 +1035,13 @@
         <v>3732</v>
       </c>
       <c r="G11" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H11" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1040,7 +1052,7 @@
         <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1052,13 +1064,13 @@
         <v>139.36</v>
       </c>
       <c r="G12" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H12" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I12" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1069,7 +1081,7 @@
         <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1081,13 +1093,13 @@
         <v>50.15</v>
       </c>
       <c r="G13" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H13" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I13" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1098,7 +1110,7 @@
         <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1110,13 +1122,13 @@
         <v>5874.66</v>
       </c>
       <c r="G14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H14" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I14" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1127,7 +1139,7 @@
         <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1139,13 +1151,13 @@
         <v>322.58</v>
       </c>
       <c r="G15" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H15" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I15" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1156,7 +1168,7 @@
         <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1168,13 +1180,13 @@
         <v>187.99</v>
       </c>
       <c r="G16" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H16" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I16" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1185,7 +1197,7 @@
         <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1197,13 +1209,13 @@
         <v>456.23</v>
       </c>
       <c r="G17" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H17" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I17" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1214,7 +1226,7 @@
         <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1226,13 +1238,13 @@
         <v>323.18</v>
       </c>
       <c r="G18" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H18" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I18" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1243,7 +1255,7 @@
         <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1255,13 +1267,13 @@
         <v>294.52</v>
       </c>
       <c r="G19" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H19" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I19" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1272,7 +1284,7 @@
         <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1284,13 +1296,13 @@
         <v>784.24</v>
       </c>
       <c r="G20" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H20" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I20" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1301,7 +1313,7 @@
         <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1313,13 +1325,13 @@
         <v>1242.08</v>
       </c>
       <c r="G21" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H21" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I21" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1330,7 +1342,7 @@
         <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1342,13 +1354,13 @@
         <v>1996.5</v>
       </c>
       <c r="G22" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H22" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I22" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1359,7 +1371,7 @@
         <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1371,13 +1383,13 @@
         <v>75.73999999999999</v>
       </c>
       <c r="G23" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H23" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I23" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1388,7 +1400,7 @@
         <v>65</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1400,13 +1412,13 @@
         <v>1527.31</v>
       </c>
       <c r="G24" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H24" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I24" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1417,7 +1429,7 @@
         <v>66</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1429,13 +1441,13 @@
         <v>117.97</v>
       </c>
       <c r="G25" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H25" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I25" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1446,7 +1458,7 @@
         <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1458,13 +1470,13 @@
         <v>1500</v>
       </c>
       <c r="G26" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H26" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I26" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1475,7 +1487,7 @@
         <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1487,13 +1499,13 @@
         <v>2055.24</v>
       </c>
       <c r="G27" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H27" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I27" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1504,7 +1516,7 @@
         <v>69</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1516,13 +1528,13 @@
         <v>2103.67</v>
       </c>
       <c r="G28" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H28" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I28" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1533,7 +1545,7 @@
         <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1545,13 +1557,13 @@
         <v>143.6</v>
       </c>
       <c r="G29" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H29" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I29" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1562,7 +1574,7 @@
         <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1574,13 +1586,13 @@
         <v>29.32</v>
       </c>
       <c r="G30" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H30" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I30" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1591,7 +1603,7 @@
         <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1603,13 +1615,13 @@
         <v>94.28</v>
       </c>
       <c r="G31" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H31" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I31" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1620,7 +1632,7 @@
         <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1632,13 +1644,13 @@
         <v>50.86</v>
       </c>
       <c r="G32" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H32" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I32" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1649,7 +1661,7 @@
         <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1661,13 +1673,13 @@
         <v>81.61</v>
       </c>
       <c r="G33" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H33" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I33" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1678,7 +1690,7 @@
         <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1690,13 +1702,13 @@
         <v>154.54</v>
       </c>
       <c r="G34" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H34" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I34" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1707,7 +1719,7 @@
         <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1719,13 +1731,13 @@
         <v>333.1</v>
       </c>
       <c r="G35" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H35" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I35" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1736,7 +1748,7 @@
         <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1748,13 +1760,13 @@
         <v>83.14</v>
       </c>
       <c r="G36" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H36" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I36" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
